--- a/data/trans_camb/P40_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P40_R-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-1.433668018749445</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-7.459784705340955</v>
+        <v>-7.459784705340944</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.4719598449032913</v>
@@ -664,7 +664,7 @@
         <v>-1.377833581663457</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-9.110006152126104</v>
+        <v>-9.110006152126115</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.224893013346815</v>
+        <v>-6.388719336847945</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.764108048136594</v>
+        <v>-6.105255520455024</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-12.05579655624543</v>
+        <v>-12.05814949177532</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.361579592266318</v>
+        <v>-4.267370616376106</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.394711857696839</v>
+        <v>-5.705776185219555</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-13.34323484623819</v>
+        <v>-13.32294857205555</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.376959420798975</v>
+        <v>-4.852307774839072</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.688732205777341</v>
+        <v>-4.530631116082092</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-12.07679940089631</v>
+        <v>-12.02523953806448</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.222151619603138</v>
+        <v>2.14343018858461</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.612238339671303</v>
+        <v>2.892397856571058</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-2.421602525482094</v>
+        <v>-2.380026029979132</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.17008328833245</v>
+        <v>3.083121329885506</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.168973900508</v>
+        <v>2.865752228164568</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-5.570652468513089</v>
+        <v>-5.784522190013238</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.564434589250568</v>
+        <v>1.20956511038106</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.953677188398719</v>
+        <v>1.853266660834098</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-5.743004715023573</v>
+        <v>-5.753743862896427</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.02095045475396539</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1090112075457282</v>
+        <v>-0.109011207545728</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.008879204154361171</v>
@@ -769,7 +769,7 @@
         <v>-0.02301313578608705</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1521590207852652</v>
+        <v>-0.1521590207852654</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.0902441590081277</v>
+        <v>-0.0908694719955305</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.08270504015155238</v>
+        <v>-0.08718178850518866</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1716639547369198</v>
+        <v>-0.1743156220091595</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.08013162562279046</v>
+        <v>-0.07762222018137563</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.09917979848004446</v>
+        <v>-0.1072899924623777</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2455000642954093</v>
+        <v>-0.244328405842584</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.07245529380703879</v>
+        <v>-0.07877927116915549</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.07677292411186197</v>
+        <v>-0.07393102616788726</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1974195269371465</v>
+        <v>-0.1968135733681426</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.03174620044965277</v>
+        <v>0.0328079404821137</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.03851534365851975</v>
+        <v>0.04357490591813037</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.03683309697415019</v>
+        <v>-0.03756056022315443</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.06167847425084234</v>
+        <v>0.06049381946234094</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.06285824875401164</v>
+        <v>0.0550105234399798</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1095277633488816</v>
+        <v>-0.1112983618073515</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02712172776551449</v>
+        <v>0.02049023877987868</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.03394342668611409</v>
+        <v>0.03170862052409351</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.09948598601565653</v>
+        <v>-0.09974354970201568</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-0.1870747236753401</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-3.423923057220657</v>
+        <v>-3.423923057220679</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.05966176929330658</v>
@@ -878,7 +878,7 @@
         <v>-1.748764532323466</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-5.176126255945124</v>
+        <v>-5.176126255945135</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.821916155924921</v>
+        <v>-3.779604199119593</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.276389775445548</v>
+        <v>-5.131550144058522</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.858134592840312</v>
+        <v>-8.76720315306339</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.044017782774352</v>
+        <v>-1.134126059382376</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.837567041862918</v>
+        <v>-2.764226878367059</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.171008716205248</v>
+        <v>-5.950162084768424</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.664403600279197</v>
+        <v>-1.561862243692218</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.369721133050527</v>
+        <v>-3.424203234395914</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-6.73678866012123</v>
+        <v>-6.759132763220296</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.345905030365665</v>
+        <v>0.2346070207214535</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.230315237142191</v>
+        <v>-1.294603803122633</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.589615377636447</v>
+        <v>-4.739111011495111</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.453705240511107</v>
+        <v>4.257604598280876</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.55602891993849</v>
+        <v>2.33342827952795</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.9677788786324276</v>
+        <v>-0.876391153710496</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.499837506856852</v>
+        <v>1.644192425307096</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02127314832766546</v>
+        <v>-0.2200880342952476</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-3.404446605414165</v>
+        <v>-3.586371894034865</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.002271291866520239</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.04157017280940935</v>
+        <v>-0.04157017280940962</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.0006863301078545902</v>
@@ -983,7 +983,7 @@
         <v>-0.02011723360367222</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.05954451793152487</v>
+        <v>-0.05954451793152499</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.0417453116894211</v>
+        <v>-0.04082002620352972</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.05713621908208578</v>
+        <v>-0.05588930580345785</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.09603404880262392</v>
+        <v>-0.09553274865132297</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.01241938495231143</v>
+        <v>-0.01354617815761857</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.03392331106214282</v>
+        <v>-0.0331942803511002</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.07383368785731251</v>
+        <v>-0.07091655456937065</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.018914534332686</v>
+        <v>-0.01786539660592654</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.03838002156516648</v>
+        <v>-0.0388838134510008</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.07675790809131895</v>
+        <v>-0.07688282417622753</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.003626798122493038</v>
+        <v>0.00269818677527273</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.01353221062917948</v>
+        <v>-0.01421914737308071</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.05069531949578893</v>
+        <v>-0.05184395910600061</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.05523514940815757</v>
+        <v>0.05250643292212614</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03181824938941375</v>
+        <v>0.02905360787199577</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.01228991647611506</v>
+        <v>-0.01090788438611413</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01742956325047753</v>
+        <v>0.0190963916617044</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.0002455904792817133</v>
+        <v>-0.002416860225675108</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.03956569028572481</v>
+        <v>-0.04162032595757269</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>1.992931740664183</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-1.88214954286744</v>
+        <v>-1.882149542867451</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.044133299020129</v>
+        <v>-3.283735606327292</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.308019167578697</v>
+        <v>-2.948116376913336</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.235862622460518</v>
+        <v>-7.16159093725654</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.304825798988862</v>
+        <v>1.266920806778213</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01510976013847539</v>
+        <v>-0.7526553548492142</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.894273062971076</v>
+        <v>-3.935558264434538</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1157790999269882</v>
+        <v>-0.248600687730093</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.6999074182054067</v>
+        <v>-0.8456014918816963</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-4.244760353471799</v>
+        <v>-4.275620741455659</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.635369439979513</v>
+        <v>4.752235458979868</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.327178859635515</v>
+        <v>4.024499814194094</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02373934432873374</v>
+        <v>0.3944048439851907</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.733719745797474</v>
+        <v>9.639954271932421</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.544260377819795</v>
+        <v>8.218677377147808</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.93700288147583</v>
+        <v>4.199051259521027</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.687457859231784</v>
+        <v>5.677186364384803</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.903646803276215</v>
+        <v>4.852716687938765</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7273003248634585</v>
+        <v>1.045559642591499</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.02247559836908609</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.02122623486439603</v>
+        <v>-0.02122623486439616</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.03308519100915554</v>
+        <v>-0.03550841028031745</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.03546934827015755</v>
+        <v>-0.03172933330274608</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.07781793184439353</v>
+        <v>-0.07668136012009363</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.01419647100308753</v>
+        <v>0.01491569042288585</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.0001384377480829386</v>
+        <v>-0.008612816659459399</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.04413367065631224</v>
+        <v>-0.04437663010288474</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.00174939313439776</v>
+        <v>-0.002529182025293537</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.008008560599711599</v>
+        <v>-0.00940934405970569</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.04713789673457341</v>
+        <v>-0.04768337151371405</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.05174291870933496</v>
+        <v>0.05291867151969271</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.04848720693235455</v>
+        <v>0.04494980119907034</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-4.324094995642911e-05</v>
+        <v>0.004569381722771795</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1160556747497126</v>
+        <v>0.1170637899464358</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.103228265911514</v>
+        <v>0.09961019605080014</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04744220027034452</v>
+        <v>0.05010386258900654</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06538978745978632</v>
+        <v>0.0655194950572493</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.05670856681839797</v>
+        <v>0.05575458406811953</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.008345612246883816</v>
+        <v>0.01180493600584252</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-0.06997435115893014</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-2.734027894744917</v>
+        <v>-2.734027894744906</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.582013980597197</v>
@@ -1306,7 +1306,7 @@
         <v>1.638969503067755</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.8922410896352928</v>
+        <v>-0.8922410896352706</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.775398089381265</v>
+        <v>-2.726224651704786</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.01826167253159</v>
+        <v>-1.845064445141619</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.659643707360495</v>
+        <v>-4.547455701960716</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.4909885829699554</v>
+        <v>-0.5364647208020392</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.126340248201575</v>
+        <v>0.926515950671473</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.9709841833564578</v>
+        <v>-0.9195646522507526</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.116600027313715</v>
+        <v>-1.109180842739662</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1577265639809007</v>
+        <v>0.2811953690972752</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.178816592248557</v>
+        <v>-2.153797146031418</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9772811212234269</v>
+        <v>0.9206276756867178</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.552943123295446</v>
+        <v>1.715504231945861</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.9412873282597891</v>
+        <v>-0.7968496364506753</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.908338297196448</v>
+        <v>3.792753897878137</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.435118894940513</v>
+        <v>5.592901624707649</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.093644501220852</v>
+        <v>3.171662547364337</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.81061296657286</v>
+        <v>1.832431642042667</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.209109684430948</v>
+        <v>2.999352584353943</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4680313600517044</v>
+        <v>0.6277580611693199</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.0008327356676428213</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.03253652955085601</v>
+        <v>-0.03253652955085588</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.02212916352441804</v>
@@ -1411,7 +1411,7 @@
         <v>0.02110387926534923</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.01148877279046505</v>
+        <v>-0.01148877279046477</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.03264224645069608</v>
+        <v>-0.03202632175537452</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.02373243455780275</v>
+        <v>-0.02178364311962493</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.05499018196950906</v>
+        <v>-0.05342363499028769</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.006768899989736326</v>
+        <v>-0.007330419601402142</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01571756701104086</v>
+        <v>0.01276644957932189</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.01338365922921671</v>
+        <v>-0.01259633953297571</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01420708229416493</v>
+        <v>-0.01407617400616943</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.002141439217650862</v>
+        <v>0.003636392372541319</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.02774711659225537</v>
+        <v>-0.02754158969164134</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.01178188125186883</v>
+        <v>0.0110408822648259</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.01863678992613619</v>
+        <v>0.02055956216261769</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.01131866176372934</v>
+        <v>-0.009718092669411239</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.05575463375233795</v>
+        <v>0.0540646631642623</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.07784655034551916</v>
+        <v>0.07919337556922013</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04387809221850294</v>
+        <v>0.04520080566617354</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02348033836445494</v>
+        <v>0.02371455383921998</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.0417589746609662</v>
+        <v>0.03911611627225321</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.006166051848693469</v>
+        <v>0.008091533836163498</v>
       </c>
     </row>
     <row r="28">
